--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,12 +30,6 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -423,7 +417,7 @@
   <dimension ref="A1:U1527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -433,7 +427,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="n"/>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>nmin 40</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1</t>
@@ -458,7 +456,11 @@
       <c r="S1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>nmax 44</t>
+        </is>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>1</t>
